--- a/scripts/output/202003/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202003/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -98,68 +98,68 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,22 +460,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31.5" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="31.5"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -578,34 +578,34 @@
         <v>1.652</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>3126.75</v>
+        <v>3182.32</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>5193.53</v>
+        <v>5403.58</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>28.14</v>
+        <v>146.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.661</v>
+        <v>1.698</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6607</v>
+        <v>1.6788</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0113</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-61.1</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -647,34 +647,34 @@
         <v>1.432</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>3503.65</v>
+        <v>3572.12</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>5006.72</v>
+        <v>5233.16</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-10.51</v>
+        <v>117.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.429</v>
+        <v>1.465</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4279</v>
+        <v>1.438</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0184</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-3.85</v>
+        <v>-96.45</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -719,31 +719,31 @@
         <v>4586.65</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4619.22</v>
+        <v>4727.92</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>306.39</v>
+        <v>415.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.0071</v>
+        <v>1.0308</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.0148</v>
+        <v>1.0222</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>35.32</v>
+        <v>-0.008399999999999999</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>-39.45</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -788,31 +788,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3337.32</v>
+        <v>3411.46</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290.43</v>
+        <v>364.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4766</v>
+        <v>1.5094</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4762</v>
+        <v>1.4765</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0218</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-0.9</v>
+        <v>-74.36</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -857,31 +857,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2746.24</v>
+        <v>2828.99</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>293.94</v>
+        <v>376.7</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.0143</v>
+        <v>2.075</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.0153</v>
+        <v>2.0435</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>1.36</v>
+        <v>-0.0152</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>-42.95</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -926,31 +926,31 @@
         <v>1178.34</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2741.17</v>
+        <v>2828.13</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224.36</v>
+        <v>311.32</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.3263</v>
+        <v>2.4001</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.3259</v>
+        <v>2.3613</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0162</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-0.47</v>
+        <v>-45.72</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -992,34 +992,34 @@
         <v>1.2125</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>997.3200000000001</v>
+        <v>1077.86</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1158.79</v>
+        <v>1288.26</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-50.46</v>
+        <v>-18.65</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.1619</v>
+        <v>1.1952</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.1641</v>
+        <v>1.1776</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>2.19</v>
+        <v>-0.0147</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>-18.97</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1064,31 +1064,31 @@
         <v>1067.42</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1115.35</v>
+        <v>1153.56</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91.8</v>
+        <v>130.01</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.0449</v>
+        <v>1.0807</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.0521</v>
+        <v>1.0741</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>7.69</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>-7.04</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1133,17 +1133,17 @@
         <v>718.11</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>806.72</v>
+        <v>822.09</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-40.79</v>
+        <v>-25.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.1234</v>
+        <v>1.1448</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
@@ -1202,31 +1202,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327.49</v>
+        <v>337.41</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.23</v>
+        <v>24.15</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.321</v>
+        <v>1.361</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3289</v>
+        <v>1.3366</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>1.96</v>
+        <v>-0.018</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-6.05</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1271,31 +1271,31 @@
         <v>64.5</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.37</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.35</v>
+        <v>-3.12</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.3545</v>
+        <v>1.3891</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3535</v>
+        <v>1.3635</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0184</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.06</v>
+        <v>-1.65</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.7605</v>
+        <v>1.8419</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.8433</v>
+        <v>1.7815</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.047</v>
+        <v>-0.0328</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.8875999999999999</v>
+        <v>0.9114</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0.9038</v>
+        <v>0.9172</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.0182</v>
+        <v>0.0064</v>
       </c>
       <c r="K14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1484,25 +1484,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.2673</v>
+        <v>1.2692</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.2675</v>
+        <v>1.2698</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="K15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1553,25 +1553,25 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9898</v>
+        <v>1.0246</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.9968</v>
+        <v>1.0128</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0.007</v>
+        <v>-0.0115</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1616,31 +1616,31 @@
         <v>77395.32000000001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94081.75</v>
+        <v>94221.06</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>286.36</v>
+        <v>425.67</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.2156</v>
+        <v>1.2174</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.2157</v>
+        <v>1.2169</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>7.74</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-38.7</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1685,31 +1685,31 @@
         <v>43156.3</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47044.68</v>
+        <v>47217.31</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1221.32</v>
+        <v>1393.95</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1.0901</v>
+        <v>1.0941</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1.0923</v>
+        <v>1.0919</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>94.94</v>
+        <v>-0.002</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-94.94</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1754,31 +1754,31 @@
         <v>42863.77</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47017.27</v>
+        <v>47253.02</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>540.08</v>
+        <v>775.83</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>1.0969</v>
+        <v>1.1024</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1.099</v>
+        <v>1.1031</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.0019</v>
+        <v>0.0007</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>90.01000000000001</v>
+        <v>30</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1823,31 +1823,31 @@
         <v>14936.36</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23554.64</v>
+        <v>23689.07</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>349.51</v>
+        <v>483.94</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1.577</v>
+        <v>1.586</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1.5793</v>
+        <v>1.5858</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>34.35</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-2.99</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1892,31 +1892,31 @@
         <v>17358.09</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23546.25</v>
+        <v>23610.47</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>218.71</v>
+        <v>282.94</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.3602</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.3566</v>
+        <v>1.357</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>1.74</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-55.55</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1961,31 +1961,31 @@
         <v>16731.88</v>
       </c>
       <c r="E22" s="13" t="n">
-        <v>10681.63</v>
+        <v>11034.67</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>-1318.47</v>
+        <v>-965.4299999999999</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v>0.6384</v>
+        <v>0.6595</v>
       </c>
       <c r="H22" s="14" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I22" s="12" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="J22" s="15" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>143.89</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-41.83</v>
       </c>
       <c r="L22" s="14" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M22" s="14" t="inlineStr">
@@ -2030,31 +2030,31 @@
         <v>35500</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>11395.5</v>
+        <v>11573</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>-1384.5</v>
+        <v>-1207</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>0.321</v>
+        <v>0.326</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>71</v>
+        <v>-0.0215</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-248.5</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2099,31 +2099,31 @@
         <v>300</v>
       </c>
       <c r="E24" s="19" t="n">
-        <v>303</v>
+        <v>310.2</v>
       </c>
       <c r="F24" s="19" t="n">
-        <v>153</v>
+        <v>160.2</v>
       </c>
       <c r="G24" s="18" t="n">
-        <v>1.01</v>
+        <v>1.034</v>
       </c>
       <c r="H24" s="20" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I24" s="18" t="n">
-        <v>1.01</v>
+        <v>1.024</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>0</v>
+        <v>-0.0097</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-3</v>
       </c>
       <c r="L24" s="20" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M24" s="20" t="inlineStr">
@@ -2168,31 +2168,31 @@
         <v>1700</v>
       </c>
       <c r="E25" s="19" t="n">
-        <v>2473.5</v>
+        <v>2502.4</v>
       </c>
       <c r="F25" s="19" t="n">
-        <v>15.3</v>
+        <v>44.2</v>
       </c>
       <c r="G25" s="18" t="n">
-        <v>1.455</v>
+        <v>1.472</v>
       </c>
       <c r="H25" s="20" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I25" s="18" t="n">
-        <v>1.458</v>
+        <v>1.441</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>5.1</v>
+        <v>-0.0211</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-52.7</v>
       </c>
       <c r="L25" s="20" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M25" s="20" t="inlineStr">
@@ -2237,31 +2237,31 @@
         <v>2700</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>7827.3</v>
+        <v>8110.8</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1517.4</v>
+        <v>1800.9</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>2.899</v>
+        <v>3.004</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>2.907</v>
+        <v>2.951</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>21.6</v>
+        <v>-0.0176</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-143.1</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2306,31 +2306,31 @@
         <v>9100</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>37091.6</v>
+        <v>38220</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>5723.9</v>
+        <v>6852.3</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>4.076</v>
+        <v>4.2</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>4.073</v>
+        <v>4.121</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0007</v>
+        <v>-0.0188</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-27.3</v>
+        <v>-718.9</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2375,31 +2375,31 @@
         <v>37600</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>230187.2</v>
+        <v>235488.8</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>20341.6</v>
+        <v>25643.2</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>6.122</v>
+        <v>6.263</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>6.164</v>
+        <v>6.227</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>1579.2</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-1353.6</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2444,31 +2444,31 @@
         <v>33800</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>28966.6</v>
+        <v>29980.6</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>-676</v>
+        <v>338</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.857</v>
+        <v>0.887</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.868</v>
+        <v>0.884</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>371.8</v>
+        <v>-0.0034</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-101.4</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2513,31 +2513,31 @@
         <v>32700</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>33877.2</v>
+        <v>36231.6</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>8273.1</v>
+        <v>10627.5</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.036</v>
+        <v>1.108</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.046</v>
+        <v>1.067</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>327</v>
+        <v>-0.037</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-1340.7</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2582,31 +2582,31 @@
         <v>34100</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>31269.7</v>
+        <v>31678.9</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>1636.8</v>
+        <v>2046</v>
       </c>
       <c r="G31" s="24" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="H31" s="26" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I31" s="24" t="n">
         <v>0.917</v>
       </c>
-      <c r="H31" s="26" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I31" s="24" t="n">
-        <v>0.919</v>
-      </c>
       <c r="J31" s="27" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>68.2</v>
+        <v>-0.0129</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-409.2</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2651,31 +2651,31 @@
         <v>4500</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>15939</v>
+        <v>16249.5</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>3087</v>
+        <v>3397.5</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>3.542</v>
+        <v>3.611</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>3.536</v>
+        <v>3.686</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0017</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-27</v>
+        <v>0.0208</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>337.5</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2720,31 +2720,31 @@
         <v>4800</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>9859.200000000001</v>
+        <v>10180.8</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>6192</v>
+        <v>6513.6</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>2.054</v>
+        <v>2.121</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>2.092</v>
+        <v>2.111</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>182.4</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-48</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2789,31 +2789,31 @@
         <v>14400</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>21772.8</v>
+        <v>22665.6</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>3470.4</v>
+        <v>4363.2</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.512</v>
+        <v>1.574</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.55</v>
+        <v>1.583</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0251</v>
+        <v>0.0057</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>547.2</v>
+        <v>129.6</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2858,31 +2858,31 @@
         <v>4157.52</v>
       </c>
       <c r="E35" s="31" t="n">
-        <v>8944.49</v>
+        <v>9179.799999999999</v>
       </c>
       <c r="F35" s="31" t="n">
-        <v>940.4299999999999</v>
+        <v>1175.75</v>
       </c>
       <c r="G35" s="30" t="n">
-        <v>2.1514</v>
+        <v>2.208</v>
       </c>
       <c r="H35" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I35" s="30" t="n">
-        <v>2.1708</v>
+        <v>2.1946</v>
       </c>
       <c r="J35" s="33" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>80.66</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-55.71</v>
       </c>
       <c r="L35" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M35" s="32" t="inlineStr">
@@ -2927,31 +2927,31 @@
         <v>9722</v>
       </c>
       <c r="E36" s="31" t="n">
-        <v>6206.52</v>
+        <v>6411.66</v>
       </c>
       <c r="F36" s="31" t="n">
-        <v>870.12</v>
+        <v>1075.25</v>
       </c>
       <c r="G36" s="30" t="n">
-        <v>0.6384</v>
+        <v>0.6595</v>
       </c>
       <c r="H36" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I36" s="30" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>83.61</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>-24.3</v>
       </c>
       <c r="L36" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M36" s="32" t="inlineStr">
@@ -2996,31 +2996,31 @@
         <v>4943.96</v>
       </c>
       <c r="E37" s="31" t="n">
-        <v>5165.94</v>
+        <v>5342.94</v>
       </c>
       <c r="F37" s="31" t="n">
-        <v>496.87</v>
+        <v>673.86</v>
       </c>
       <c r="G37" s="30" t="n">
-        <v>1.0449</v>
+        <v>1.0807</v>
       </c>
       <c r="H37" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I37" s="30" t="n">
-        <v>1.0521</v>
+        <v>1.0741</v>
       </c>
       <c r="J37" s="33" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>35.6</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-32.63</v>
       </c>
       <c r="L37" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M37" s="32" t="inlineStr">
@@ -3065,31 +3065,31 @@
         <v>7379.54</v>
       </c>
       <c r="E38" s="31" t="n">
-        <v>4604.83</v>
+        <v>4715.53</v>
       </c>
       <c r="F38" s="31" t="n">
-        <v>602.91</v>
+        <v>713.6</v>
       </c>
       <c r="G38" s="30" t="n">
-        <v>0.624</v>
+        <v>0.639</v>
       </c>
       <c r="H38" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I38" s="30" t="n">
-        <v>0.6296</v>
+        <v>0.6351</v>
       </c>
       <c r="J38" s="33" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>41.33</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>-28.78</v>
       </c>
       <c r="L38" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M38" s="32" t="inlineStr">
@@ -3134,31 +3134,31 @@
         <v>4074.72</v>
       </c>
       <c r="E39" s="31" t="n">
-        <v>4160.29</v>
+        <v>4274.38</v>
       </c>
       <c r="F39" s="31" t="n">
-        <v>158.1</v>
+        <v>272.19</v>
       </c>
       <c r="G39" s="30" t="n">
-        <v>1.021</v>
+        <v>1.049</v>
       </c>
       <c r="H39" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I39" s="30" t="n">
-        <v>1.0208</v>
+        <v>1.0371</v>
       </c>
       <c r="J39" s="33" t="n">
-        <v>-0.0002</v>
+        <v>-0.0113</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-48.49</v>
       </c>
       <c r="L39" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M39" s="32" t="inlineStr">
@@ -3203,31 +3203,31 @@
         <v>4550.55</v>
       </c>
       <c r="E40" s="31" t="n">
-        <v>4111.42</v>
+        <v>4176.04</v>
       </c>
       <c r="F40" s="31" t="n">
-        <v>776.3200000000001</v>
+        <v>840.9400000000001</v>
       </c>
       <c r="G40" s="30" t="n">
-        <v>0.9035</v>
+        <v>0.9177</v>
       </c>
       <c r="H40" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I40" s="30" t="n">
-        <v>0.9084</v>
+        <v>0.9066</v>
       </c>
       <c r="J40" s="33" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>22.3</v>
+        <v>-0.0121</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-50.51</v>
       </c>
       <c r="L40" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M40" s="32" t="inlineStr">
@@ -3272,31 +3272,31 @@
         <v>400.63</v>
       </c>
       <c r="E41" s="31" t="n">
-        <v>868.73</v>
+        <v>896.29</v>
       </c>
       <c r="F41" s="31" t="n">
-        <v>201.72</v>
+        <v>229.28</v>
       </c>
       <c r="G41" s="30" t="n">
-        <v>2.1684</v>
+        <v>2.2372</v>
       </c>
       <c r="H41" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I41" s="30" t="n">
-        <v>2.2051</v>
+        <v>2.2213</v>
       </c>
       <c r="J41" s="33" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>14.7</v>
+        <v>-0.0071</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-6.37</v>
       </c>
       <c r="L41" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M41" s="32" t="inlineStr">
@@ -3341,31 +3341,31 @@
         <v>736.3</v>
       </c>
       <c r="E42" s="31" t="n">
-        <v>862.35</v>
+        <v>888.64</v>
       </c>
       <c r="F42" s="31" t="n">
-        <v>195.34</v>
+        <v>221.63</v>
       </c>
       <c r="G42" s="30" t="n">
-        <v>1.1712</v>
+        <v>1.2069</v>
       </c>
       <c r="H42" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I42" s="30" t="n">
-        <v>1.191</v>
+        <v>1.1983</v>
       </c>
       <c r="J42" s="33" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>14.58</v>
+        <v>-0.0071</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-6.33</v>
       </c>
       <c r="L42" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M42" s="32" t="inlineStr">
@@ -3410,31 +3410,31 @@
         <v>809.28</v>
       </c>
       <c r="E43" s="31" t="n">
-        <v>759.51</v>
+        <v>787.35</v>
       </c>
       <c r="F43" s="31" t="n">
-        <v>92.5</v>
+        <v>120.34</v>
       </c>
       <c r="G43" s="30" t="n">
-        <v>0.9385</v>
+        <v>0.9729</v>
       </c>
       <c r="H43" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I43" s="30" t="n">
-        <v>0.9588</v>
+        <v>0.9785</v>
       </c>
       <c r="J43" s="33" t="n">
-        <v>0.0217</v>
+        <v>0.0058</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>16.43</v>
+        <v>4.53</v>
       </c>
       <c r="L43" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M43" s="32" t="inlineStr">
@@ -3479,31 +3479,31 @@
         <v>611.53</v>
       </c>
       <c r="E44" s="31" t="n">
-        <v>664.55</v>
+        <v>691.33</v>
       </c>
       <c r="F44" s="31" t="n">
-        <v>-2.45</v>
+        <v>24.34</v>
       </c>
       <c r="G44" s="30" t="n">
-        <v>1.0867</v>
+        <v>1.1305</v>
       </c>
       <c r="H44" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I44" s="30" t="n">
-        <v>1.0896</v>
+        <v>1.1055</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>1.77</v>
+        <v>-0.0221</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-15.29</v>
       </c>
       <c r="L44" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M44" s="32" t="inlineStr">
@@ -3548,31 +3548,31 @@
         <v>473.85</v>
       </c>
       <c r="E45" s="31" t="n">
-        <v>529.95</v>
+        <v>563.74</v>
       </c>
       <c r="F45" s="31" t="n">
-        <v>63.07</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="G45" s="30" t="n">
-        <v>1.1184</v>
+        <v>1.1897</v>
       </c>
       <c r="H45" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I45" s="30" t="n">
-        <v>1.1288</v>
+        <v>1.1504</v>
       </c>
       <c r="J45" s="33" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>4.93</v>
+        <v>-0.0331</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-18.62</v>
       </c>
       <c r="L45" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M45" s="32" t="inlineStr">
@@ -3617,31 +3617,31 @@
         <v>5299.96</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>1701.29</v>
+        <v>1727.79</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>-299.45</v>
+        <v>-272.95</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>0.321</v>
+        <v>0.326</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>10.6</v>
+        <v>-0.0215</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>-37.1</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3686,31 +3686,31 @@
         <v>576.8</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>787.33</v>
+        <v>807.52</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>120.32</v>
+        <v>140.51</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.365</v>
+        <v>1.4</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.4133</v>
+        <v>1.3655</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>27.86</v>
+        <v>-0.0247</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-19.9</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3755,31 +3755,31 @@
         <v>459.67</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>676.63</v>
+        <v>685.92</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>9.65</v>
+        <v>18.94</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.472</v>
+        <v>1.4922</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.4716</v>
+        <v>1.4593</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0002</v>
+        <v>-0.022</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-0.18</v>
+        <v>-15.12</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3824,17 +3824,17 @@
         <v>611.75</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>660.6900000000001</v>
+        <v>677.8200000000001</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>-6.3</v>
+        <v>10.83</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.08</v>
+        <v>1.108</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
@@ -3893,31 +3893,31 @@
         <v>1564.33</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>3365.5</v>
+        <v>3454.04</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>365.43</v>
+        <v>453.97</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>2.1514</v>
+        <v>2.208</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>2.1708</v>
+        <v>2.1946</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>30.35</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>-20.96</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3962,31 +3962,31 @@
         <v>3083.26</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>3148.01</v>
+        <v>3234.34</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>148</v>
+        <v>234.33</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.021</v>
+        <v>1.049</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.0208</v>
+        <v>1.0371</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0002</v>
+        <v>-0.0113</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>-0.62</v>
+        <v>-36.69</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4031,31 +4031,31 @@
         <v>1812.7</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>1131.12</v>
+        <v>1158.32</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>131.06</v>
+        <v>158.25</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.624</v>
+        <v>0.639</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.6296</v>
+        <v>0.6351</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>10.15</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>-7.07</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4100,31 +4100,31 @@
         <v>1227.03</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>1108.62</v>
+        <v>1126.05</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>108.59</v>
+        <v>126.02</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>0.9035</v>
+        <v>0.9177</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>0.9084</v>
+        <v>0.9066</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>6.01</v>
+        <v>-0.0121</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>-13.62</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4169,31 +4169,31 @@
         <v>1059.17</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>1054.93</v>
+        <v>1092</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>54.97</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>0.996</v>
+        <v>1.031</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0004</v>
+        <v>1.0138</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>4.66</v>
+        <v>-0.0167</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-18.22</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4238,31 +4238,31 @@
         <v>916.83</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>996.3200000000001</v>
+        <v>1036.48</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>-3.67</v>
+        <v>36.49</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.0867</v>
+        <v>1.1305</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.0896</v>
+        <v>1.1055</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>2.66</v>
+        <v>-0.0221</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>-22.92</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4307,31 +4307,31 @@
         <v>1834.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>2406.64</v>
+        <v>2455.44</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>406.7</v>
+        <v>455.5</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.3119</v>
+        <v>1.3385</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3104</v>
+        <v>1.3601</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>-2.75</v>
+        <v>0.0161</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>39.62</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:30</t>
+          <t>2020-03-06 15:30</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4376,31 +4376,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>1228.25</v>
+        <v>1259.75</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>228.28</v>
+        <v>259.78</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.365</v>
+        <v>1.4</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.4133</v>
+        <v>1.3655</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>43.46</v>
+        <v>-0.0247</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-31.04</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4445,31 +4445,31 @@
         <v>689.02</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>1014.24</v>
+        <v>1028.16</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>14.26</v>
+        <v>28.18</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.472</v>
+        <v>1.4922</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4716</v>
+        <v>1.4593</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0002</v>
+        <v>-0.022</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-0.28</v>
+        <v>-22.67</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4514,31 +4514,31 @@
         <v>7734.05</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>2482.63</v>
+        <v>2521.3</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>-517.41</v>
+        <v>-478.74</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.321</v>
+        <v>0.326</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>15.47</v>
+        <v>-0.0215</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>-54.14</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4583,31 +4583,31 @@
         <v>595.47</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>1086.14</v>
+        <v>1098.05</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>86.16</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.824</v>
+        <v>1.844</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.8283</v>
+        <v>1.8391</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>2.56</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>-2.92</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4652,17 +4652,17 @@
         <v>953.96</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>1030.28</v>
+        <v>1056.99</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>30.24</v>
+        <v>56.95</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.08</v>
+        <v>1.108</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
@@ -4721,31 +4721,31 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E62" s="37" t="n">
-        <v>73856.88</v>
+        <v>75882.34</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>7530.36</v>
+        <v>9555.82</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>1.021</v>
+        <v>1.049</v>
       </c>
       <c r="H62" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I62" s="36" t="n">
-        <v>1.0208</v>
+        <v>1.0371</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>-0.0002</v>
+        <v>-0.0113</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-14.47</v>
+        <v>-860.8200000000001</v>
       </c>
       <c r="L62" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M62" s="38" t="inlineStr">
@@ -4790,31 +4790,31 @@
         <v>63490</v>
       </c>
       <c r="E63" s="37" t="n">
-        <v>66340.7</v>
+        <v>68613.64</v>
       </c>
       <c r="F63" s="37" t="n">
-        <v>8139.42</v>
+        <v>10412.36</v>
       </c>
       <c r="G63" s="36" t="n">
-        <v>1.0449</v>
+        <v>1.0807</v>
       </c>
       <c r="H63" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I63" s="36" t="n">
-        <v>1.0521</v>
+        <v>1.0741</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>457.13</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-419.03</v>
       </c>
       <c r="L63" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M63" s="38" t="inlineStr">
@@ -4859,31 +4859,31 @@
         <v>32370.29</v>
       </c>
       <c r="E64" s="37" t="n">
-        <v>41223.56</v>
+        <v>41919.53</v>
       </c>
       <c r="F64" s="37" t="n">
-        <v>9222.299999999999</v>
+        <v>9918.26</v>
       </c>
       <c r="G64" s="36" t="n">
-        <v>1.2735</v>
+        <v>1.295</v>
       </c>
       <c r="H64" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I64" s="36" t="n">
-        <v>1.273</v>
+        <v>1.2873</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>-0.0004</v>
+        <v>-0.0059</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-16.19</v>
+        <v>-249.25</v>
       </c>
       <c r="L64" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M64" s="38" t="inlineStr">
@@ -4928,31 +4928,31 @@
         <v>41014.88</v>
       </c>
       <c r="E65" s="37" t="n">
-        <v>38492.46</v>
+        <v>39903.38</v>
       </c>
       <c r="F65" s="37" t="n">
-        <v>7932.28</v>
+        <v>9343.190000000001</v>
       </c>
       <c r="G65" s="36" t="n">
-        <v>0.9385</v>
+        <v>0.9729</v>
       </c>
       <c r="H65" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I65" s="36" t="n">
-        <v>0.9588</v>
+        <v>0.9785</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>0.0217</v>
+        <v>0.0058</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>832.6</v>
+        <v>229.68</v>
       </c>
       <c r="L65" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M65" s="38" t="inlineStr">
@@ -4997,31 +4997,31 @@
         <v>20086.63</v>
       </c>
       <c r="E66" s="37" t="n">
-        <v>36638.01</v>
+        <v>37039.75</v>
       </c>
       <c r="F66" s="37" t="n">
-        <v>4638</v>
+        <v>5039.74</v>
       </c>
       <c r="G66" s="36" t="n">
-        <v>1.824</v>
+        <v>1.844</v>
       </c>
       <c r="H66" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I66" s="36" t="n">
-        <v>1.8283</v>
+        <v>1.8391</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>86.37</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>-98.42</v>
       </c>
       <c r="L66" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M66" s="38" t="inlineStr">
@@ -5066,31 +5066,31 @@
         <v>27031.68</v>
       </c>
       <c r="E67" s="37" t="n">
-        <v>29375.33</v>
+        <v>30559.31</v>
       </c>
       <c r="F67" s="37" t="n">
-        <v>3773.62</v>
+        <v>4957.61</v>
       </c>
       <c r="G67" s="36" t="n">
-        <v>1.0867</v>
+        <v>1.1305</v>
       </c>
       <c r="H67" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I67" s="36" t="n">
-        <v>1.0896</v>
+        <v>1.1055</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>78.39</v>
+        <v>-0.0221</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-675.79</v>
       </c>
       <c r="L67" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M67" s="38" t="inlineStr">
@@ -5135,31 +5135,31 @@
         <v>14624.61</v>
       </c>
       <c r="E68" s="37" t="n">
-        <v>24613.22</v>
+        <v>25388.32</v>
       </c>
       <c r="F68" s="37" t="n">
-        <v>5412.57</v>
+        <v>6187.67</v>
       </c>
       <c r="G68" s="36" t="n">
-        <v>1.683</v>
+        <v>1.736</v>
       </c>
       <c r="H68" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I68" s="36" t="n">
-        <v>1.6915</v>
+        <v>1.7093</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>124.31</v>
+        <v>-0.0154</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-390.48</v>
       </c>
       <c r="L68" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M68" s="38" t="inlineStr">
@@ -5204,31 +5204,31 @@
         <v>16778.47</v>
       </c>
       <c r="E69" s="37" t="n">
-        <v>22902.61</v>
+        <v>23489.86</v>
       </c>
       <c r="F69" s="37" t="n">
-        <v>3701.33</v>
+        <v>4288.58</v>
       </c>
       <c r="G69" s="36" t="n">
-        <v>1.365</v>
+        <v>1.4</v>
       </c>
       <c r="H69" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I69" s="36" t="n">
-        <v>1.4133</v>
+        <v>1.3655</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>810.4</v>
+        <v>-0.0247</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>-578.86</v>
       </c>
       <c r="L69" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M69" s="38" t="inlineStr">
@@ -5273,17 +5273,17 @@
         <v>20716.63</v>
       </c>
       <c r="E70" s="37" t="n">
-        <v>22373.96</v>
+        <v>22954.03</v>
       </c>
       <c r="F70" s="37" t="n">
-        <v>-227.88</v>
+        <v>352.18</v>
       </c>
       <c r="G70" s="36" t="n">
-        <v>1.08</v>
+        <v>1.108</v>
       </c>
       <c r="H70" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I70" s="36" t="n">
@@ -5342,31 +5342,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E71" s="37" t="n">
-        <v>17763.57</v>
+        <v>18268.65</v>
       </c>
       <c r="F71" s="37" t="n">
-        <v>4963.13</v>
+        <v>5468.2</v>
       </c>
       <c r="G71" s="36" t="n">
-        <v>1.864</v>
+        <v>1.917</v>
       </c>
       <c r="H71" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I71" s="36" t="n">
-        <v>1.8808</v>
+        <v>1.9053</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>160.1</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>-111.5</v>
       </c>
       <c r="L71" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M71" s="38" t="inlineStr">
@@ -5411,31 +5411,31 @@
         <v>37267.45</v>
       </c>
       <c r="E72" s="37" t="n">
-        <v>11962.85</v>
+        <v>12149.19</v>
       </c>
       <c r="F72" s="37" t="n">
-        <v>-7237.34</v>
+        <v>-7051</v>
       </c>
       <c r="G72" s="36" t="n">
-        <v>0.321</v>
+        <v>0.326</v>
       </c>
       <c r="H72" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I72" s="36" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>74.53</v>
+        <v>-0.0215</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>-260.87</v>
       </c>
       <c r="L72" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M72" s="38" t="inlineStr">
@@ -5480,31 +5480,31 @@
         <v>6798.52</v>
       </c>
       <c r="E73" s="37" t="n">
-        <v>10007.42</v>
+        <v>10144.75</v>
       </c>
       <c r="F73" s="37" t="n">
-        <v>107.42</v>
+        <v>244.75</v>
       </c>
       <c r="G73" s="36" t="n">
-        <v>1.472</v>
+        <v>1.4922</v>
       </c>
       <c r="H73" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I73" s="36" t="n">
-        <v>1.4716</v>
+        <v>1.4593</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>-0.0002</v>
+        <v>-0.022</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-2.72</v>
+        <v>-223.67</v>
       </c>
       <c r="L73" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M73" s="38" t="inlineStr">
@@ -5549,31 +5549,31 @@
         <v>13403.92</v>
       </c>
       <c r="E74" s="37" t="n">
-        <v>8557.059999999999</v>
+        <v>8839.889999999999</v>
       </c>
       <c r="F74" s="37" t="n">
-        <v>2156.69</v>
+        <v>2439.51</v>
       </c>
       <c r="G74" s="36" t="n">
-        <v>0.6384</v>
+        <v>0.6595</v>
       </c>
       <c r="H74" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I74" s="36" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>115.27</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>-33.51</v>
       </c>
       <c r="L74" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M74" s="38" t="inlineStr">
@@ -5618,31 +5618,31 @@
         <v>5328.62</v>
       </c>
       <c r="E75" s="37" t="n">
-        <v>8103.23</v>
+        <v>8221.530000000001</v>
       </c>
       <c r="F75" s="37" t="n">
-        <v>1703.03</v>
+        <v>1821.32</v>
       </c>
       <c r="G75" s="36" t="n">
-        <v>1.5207</v>
+        <v>1.5429</v>
       </c>
       <c r="H75" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I75" s="36" t="n">
-        <v>1.5286</v>
+        <v>1.5402</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>42.1</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>-14.39</v>
       </c>
       <c r="L75" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M75" s="38" t="inlineStr">
@@ -5687,17 +5687,17 @@
         <v>5609.79</v>
       </c>
       <c r="E76" s="37" t="n">
-        <v>7646.14</v>
+        <v>7685.41</v>
       </c>
       <c r="F76" s="37" t="n">
-        <v>2500.84</v>
+        <v>2540.11</v>
       </c>
       <c r="G76" s="36" t="n">
-        <v>1.363</v>
+        <v>1.37</v>
       </c>
       <c r="H76" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I76" s="36" t="n">
@@ -5756,31 +5756,31 @@
         <v>3299.64</v>
       </c>
       <c r="E77" s="37" t="n">
-        <v>7098.85</v>
+        <v>7285.61</v>
       </c>
       <c r="F77" s="37" t="n">
-        <v>698.53</v>
+        <v>885.29</v>
       </c>
       <c r="G77" s="36" t="n">
-        <v>2.1514</v>
+        <v>2.208</v>
       </c>
       <c r="H77" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I77" s="36" t="n">
-        <v>2.1708</v>
+        <v>2.1946</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>64.01000000000001</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>-44.22</v>
       </c>
       <c r="L77" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M77" s="38" t="inlineStr">
@@ -5825,31 +5825,31 @@
         <v>7852.99</v>
       </c>
       <c r="E78" s="37" t="n">
-        <v>7095.18</v>
+        <v>7206.69</v>
       </c>
       <c r="F78" s="37" t="n">
-        <v>694.99</v>
+        <v>806.5</v>
       </c>
       <c r="G78" s="36" t="n">
-        <v>0.9035</v>
+        <v>0.9177</v>
       </c>
       <c r="H78" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I78" s="36" t="n">
-        <v>0.9084</v>
+        <v>0.9066</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>38.48</v>
+        <v>-0.0121</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>-87.17</v>
       </c>
       <c r="L78" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M78" s="38" t="inlineStr">
@@ -5888,37 +5888,37 @@
         <v>90010</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.6562</v>
+        <v>1.6563</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>1254.61</v>
+        <v>1276.84</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>2083.91</v>
+        <v>2168.07</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>6.02</v>
+        <v>53.24</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.661</v>
+        <v>1.698</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.6607</v>
+        <v>1.6788</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0113</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-0.38</v>
+        <v>-24.52</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5957,37 +5957,37 @@
         <v>519671</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.4309</v>
+        <v>1.4308</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1376.6</v>
+        <v>1403.99</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1967.16</v>
+        <v>2056.85</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-2.62</v>
+        <v>48.02</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.429</v>
+        <v>1.465</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.4279</v>
+        <v>1.438</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0184</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-1.51</v>
+        <v>-37.91</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6032,31 +6032,31 @@
         <v>1797.43</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1810.19</v>
+        <v>1852.79</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>119.35</v>
+        <v>161.95</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.0071</v>
+        <v>1.0308</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.0148</v>
+        <v>1.0222</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>13.84</v>
+        <v>-0.008399999999999999</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>-15.46</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6101,31 +6101,31 @@
         <v>915.97</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1352.52</v>
+        <v>1382.57</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>114.68</v>
+        <v>144.72</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.4766</v>
+        <v>1.5094</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.4762</v>
+        <v>1.4765</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0218</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-0.37</v>
+        <v>-30.14</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6170,31 +6170,31 @@
         <v>469.05</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1091.15</v>
+        <v>1125.77</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>86.54000000000001</v>
+        <v>121.16</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>2.3263</v>
+        <v>2.4001</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>2.3259</v>
+        <v>2.3613</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0162</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.19</v>
+        <v>-18.2</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6239,31 +6239,31 @@
         <v>528.99</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1065.54</v>
+        <v>1097.65</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>113.79</v>
+        <v>145.9</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>2.0143</v>
+        <v>2.075</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.0153</v>
+        <v>2.0435</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K84" s="9" t="n">
-        <v>0.53</v>
+        <v>-0.0152</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>-16.66</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6302,37 +6302,37 @@
         <v>1594</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.213</v>
+        <v>1.2095</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>395.22</v>
+        <v>427.43</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>459.21</v>
+        <v>510.86</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>-20.2</v>
+        <v>-6.11</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.1619</v>
+        <v>1.1952</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.1641</v>
+        <v>1.1776</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>0.87</v>
+        <v>-0.0147</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>-7.52</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6377,31 +6377,31 @@
         <v>426.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>446.14</v>
+        <v>461.43</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>36.76</v>
+        <v>52.05</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.0449</v>
+        <v>1.0807</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.0521</v>
+        <v>1.0741</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K86" s="9" t="n">
-        <v>3.07</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K86" s="8" t="n">
+        <v>-2.82</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6440,23 +6440,23 @@
         <v>6327</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1.18</v>
+        <v>1.1751</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>288.61</v>
+        <v>319.7</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>324.22</v>
+        <v>365.99</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-16.34</v>
+        <v>-9.69</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.1234</v>
+        <v>1.1448</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
@@ -6515,31 +6515,31 @@
         <v>142.1</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>187.71</v>
+        <v>193.4</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>5.26</v>
+        <v>10.94</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.321</v>
+        <v>1.361</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.3289</v>
+        <v>1.3366</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>1.12</v>
+        <v>-0.018</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>-3.47</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6584,31 +6584,31 @@
         <v>25.8</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>34.95</v>
+        <v>35.84</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-2.13</v>
+        <v>-1.24</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>1.3545</v>
+        <v>1.3891</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1.3535</v>
+        <v>1.3635</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0184</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-0.03</v>
+        <v>-0.66</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6647,37 +6647,37 @@
         <v>161128</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0</v>
+        <v>1.7828</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>0</v>
+        <v>18.69</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0</v>
+        <v>34.43</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.7605</v>
+        <v>1.8419</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.8433</v>
+        <v>1.7815</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>0</v>
+        <v>-0.0328</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-1.13</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6728,25 +6728,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.8875999999999999</v>
+        <v>0.9114</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9038</v>
+        <v>0.9172</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0182</v>
+        <v>0.0064</v>
       </c>
       <c r="K91" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6797,25 +6797,25 @@
         <v>0</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.2673</v>
+        <v>1.2692</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.2675</v>
+        <v>1.2698</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="K92" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6866,25 +6866,25 @@
         <v>0</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.9898</v>
+        <v>1.0246</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.9968</v>
+        <v>1.0128</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.007</v>
+        <v>-0.0115</v>
       </c>
       <c r="K93" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,389 +6916,389 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>长安鑫益增强混合C</t>
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>519671</v>
+        <v>2147</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>1.4308</v>
+        <v>1.2174</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>1334.02</v>
+        <v>1588.12</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>1906.31</v>
+        <v>1933.38</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.429</v>
+        <v>1.2174</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.4279</v>
+        <v>1.2169</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0004</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>-1.47</v>
+        <v>-0.79</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N94" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O94" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P94" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q94" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>90010</v>
+        <v>6060</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>1.6528</v>
+        <v>1.1024</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>1139.64</v>
+        <v>876.9</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>1892.94</v>
+        <v>966.6900000000001</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>9.35</v>
+        <v>0</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>1.661</v>
+        <v>1.1024</v>
       </c>
       <c r="H95" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>1.6607</v>
+        <v>1.1031</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>-0.34</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>0.61</v>
       </c>
       <c r="L95" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M95" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N95" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O95" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P95" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q95" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>民生加银鹏程混合C</t>
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>3318</v>
+        <v>7749</v>
       </c>
       <c r="C96" s="4" t="n">
-        <v>0.9401</v>
+        <v>1.0941</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>1697.75</v>
+        <v>883.55</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>1709.8</v>
+        <v>966.6900000000001</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>1.0071</v>
+        <v>1.0941</v>
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>1.0148</v>
+        <v>1.0919</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>13.07</v>
+        <v>-0.002</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>-1.94</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N96" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O96" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P96" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q96" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>工银双利债券B</t>
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>501021</v>
+        <v>485011</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.586</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>898.04</v>
+        <v>304.75</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>1326.05</v>
+        <v>483.33</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>115.04</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>1.4766</v>
+        <v>1.586</v>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.4762</v>
+        <v>1.5858</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-0.36</v>
+        <v>-0.06</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 16:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N97" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O97" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P97" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q97" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>安信稳健增值混合C</t>
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>530015</v>
+        <v>1338</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>2.128</v>
+        <v>1.3602</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>439.46</v>
+        <v>355.34</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1022.32</v>
+        <v>483.33</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>87.14</v>
+        <v>0</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>2.3263</v>
+        <v>1.3602</v>
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I98" s="4" t="n">
-        <v>2.3259</v>
+        <v>1.357</v>
       </c>
       <c r="J98" s="7" t="n">
-        <v>-0.0002</v>
+        <v>-0.0023</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-0.18</v>
+        <v>-1.14</v>
       </c>
       <c r="L98" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M98" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N98" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O98" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P98" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q98" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>钉钉宝365母</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B99" s="3" t="n">
-        <v>70023</v>
+        <v>519671</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>1.7966</v>
+        <v>1.4308</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>492.58</v>
+        <v>1361.41</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>992.2</v>
+        <v>1994.47</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>107.23</v>
+        <v>46.56</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>2.0143</v>
+        <v>1.465</v>
       </c>
       <c r="H99" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I99" s="4" t="n">
-        <v>2.0153</v>
+        <v>1.438</v>
       </c>
       <c r="J99" s="7" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>0.49</v>
+        <v>-0.0184</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>-36.76</v>
       </c>
       <c r="L99" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M99" s="6" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="O99" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P99" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q99" s="6" t="inlineStr">
@@ -7330,44 +7330,44 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>1594</v>
+        <v>90010</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1.2089</v>
+        <v>1.653</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>345.79</v>
+        <v>1161.87</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>401.77</v>
+        <v>1972.86</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>-16.25</v>
+        <v>52.28</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>1.1619</v>
+        <v>1.698</v>
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1.1641</v>
+        <v>1.6788</v>
       </c>
       <c r="J100" s="7" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K100" s="9" t="n">
-        <v>0.76</v>
+        <v>-0.0113</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>-22.31</v>
       </c>
       <c r="L100" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M100" s="6" t="inlineStr">
@@ -7377,17 +7377,17 @@
       </c>
       <c r="N100" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O100" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P100" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q100" s="6" t="inlineStr">
@@ -7399,44 +7399,44 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>968</v>
+        <v>3318</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9401</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>390.82</v>
+        <v>1697.75</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>408.37</v>
+        <v>1750.04</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>33.22</v>
+        <v>153.99</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>1.0449</v>
+        <v>1.0308</v>
       </c>
       <c r="H101" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I101" s="4" t="n">
-        <v>1.0521</v>
+        <v>1.0222</v>
       </c>
       <c r="J101" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>2.81</v>
+        <v>-0.008399999999999999</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>-14.6</v>
       </c>
       <c r="L101" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M101" s="6" t="inlineStr">
@@ -7446,17 +7446,17 @@
       </c>
       <c r="N101" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O101" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P101" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q101" s="6" t="inlineStr">
@@ -7468,44 +7468,44 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>6327</v>
+        <v>501021</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1.18</v>
+        <v>1.3485</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>278.81</v>
+        <v>898.04</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>313.22</v>
+        <v>1355.5</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>-15.78</v>
+        <v>144.49</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>1.1234</v>
+        <v>1.5094</v>
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>0</v>
+        <v>1.4765</v>
       </c>
       <c r="J102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="9" t="n">
-        <v>0</v>
+        <v>-0.0218</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>-29.55</v>
       </c>
       <c r="L102" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-03-06 16:00</t>
         </is>
       </c>
       <c r="M102" s="6" t="inlineStr">
@@ -7515,17 +7515,17 @@
       </c>
       <c r="N102" s="6" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O102" s="6" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P102" s="6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q102" s="6" t="inlineStr">
@@ -7537,44 +7537,44 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>501050</v>
+        <v>530015</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1.2891</v>
+        <v>2.128</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>62.09</v>
+        <v>439.46</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>82.02</v>
+        <v>1054.75</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>1.98</v>
+        <v>119.58</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>1.321</v>
+        <v>2.4001</v>
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
-        <v>1.3289</v>
+        <v>2.3613</v>
       </c>
       <c r="J103" s="7" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>0.49</v>
+        <v>-0.0162</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>-17.05</v>
       </c>
       <c r="L103" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M103" s="6" t="inlineStr">
@@ -7589,12 +7589,12 @@
       </c>
       <c r="O103" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P103" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q103" s="6" t="inlineStr">
@@ -7606,44 +7606,44 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>310398</v>
+        <v>70023</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.7966</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>25.8</v>
+        <v>492.58</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>34.95</v>
+        <v>1022.1</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>-2.13</v>
+        <v>137.13</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>1.3545</v>
+        <v>2.075</v>
       </c>
       <c r="H104" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I104" s="4" t="n">
-        <v>1.3535</v>
+        <v>2.0435</v>
       </c>
       <c r="J104" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0152</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>-0.03</v>
+        <v>-15.52</v>
       </c>
       <c r="L104" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M104" s="6" t="inlineStr">
@@ -7658,12 +7658,12 @@
       </c>
       <c r="O104" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P104" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q104" s="6" t="inlineStr">
@@ -7675,64 +7675,64 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>161128</v>
+        <v>1594</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>0</v>
+        <v>1.2052</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>0</v>
+        <v>451.79</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1.7605</v>
+        <v>1.1952</v>
       </c>
       <c r="H105" s="6" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1.8433</v>
+        <v>1.1776</v>
       </c>
       <c r="J105" s="7" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>0</v>
+        <v>-0.0147</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>-6.65</v>
       </c>
       <c r="L105" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M105" s="6" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N105" s="6" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O105" s="6" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P105" s="6" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q105" s="6" t="inlineStr">
@@ -7744,44 +7744,44 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B106" s="3" t="n">
-        <v>1550</v>
+        <v>968</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9599</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>0</v>
+        <v>390.82</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0</v>
+        <v>422.36</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>0</v>
+        <v>47.21</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>0.8875999999999999</v>
+        <v>1.0807</v>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
-        <v>0.9038</v>
+        <v>1.0741</v>
       </c>
       <c r="J106" s="7" t="n">
-        <v>0.0182</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>-2.58</v>
       </c>
       <c r="L106" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M106" s="6" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="O106" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P106" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q106" s="6" t="inlineStr">
@@ -7813,64 +7813,64 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>2086</v>
+        <v>6327</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.175</v>
       </c>
       <c r="D107" s="5" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>354.77</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>1.1448</v>
+      </c>
+      <c r="H107" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="I107" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E107" s="5" t="n">
+      <c r="J107" s="7" t="n">
         <v>0</v>
-      </c>
-      <c r="F107" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>1.2673</v>
-      </c>
-      <c r="H107" s="6" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I107" s="4" t="n">
-        <v>1.2675</v>
-      </c>
-      <c r="J107" s="7" t="n">
-        <v>0.0001</v>
       </c>
       <c r="K107" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L107" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M107" s="6" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N107" s="6" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O107" s="6" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P107" s="6" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q107" s="6" t="inlineStr">
@@ -7882,44 +7882,44 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>501029</v>
+        <v>501050</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>0.9829</v>
+        <v>1.2891</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>0</v>
+        <v>62.09</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>0.9898</v>
+        <v>1.361</v>
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>0.9968</v>
+        <v>1.3366</v>
       </c>
       <c r="J108" s="7" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="K108" s="9" t="n">
-        <v>0</v>
+        <v>-0.018</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>-1.51</v>
       </c>
       <c r="L108" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M108" s="6" t="inlineStr">
@@ -7929,17 +7929,17 @@
       </c>
       <c r="N108" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O108" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P108" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q108" s="6" t="inlineStr">
@@ -7951,734 +7951,734 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>长安鑫益增强混合C</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>2147</v>
+        <v>310398</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>1.2153</v>
+        <v>1.4372</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>249386.18</v>
+        <v>25.8</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>303153.84</v>
+        <v>35.84</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>74.81999999999999</v>
+        <v>-1.24</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>1.2156</v>
+        <v>1.3891</v>
       </c>
       <c r="H109" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>1.2157</v>
+        <v>1.3635</v>
       </c>
       <c r="J109" s="7" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>24.94</v>
+        <v>-0.0184</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>-0.66</v>
       </c>
       <c r="L109" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M109" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N109" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O109" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P109" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q109" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>民生加银鹏程混合C</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>7749</v>
+        <v>161128</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>1.0896</v>
+        <v>1.7828</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>139411.13</v>
+        <v>18.69</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>151972.07</v>
+        <v>34.43</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>69.70999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>1.0901</v>
+        <v>1.8419</v>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>1.0923</v>
+        <v>1.7815</v>
       </c>
       <c r="J110" s="7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K110" s="9" t="n">
-        <v>306.7</v>
+        <v>-0.0328</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>-1.13</v>
       </c>
       <c r="L110" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M110" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N110" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="O110" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="P110" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>315</t>
         </is>
       </c>
       <c r="Q110" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6060</v>
+        <v>1550</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1.0968</v>
+        <v>0.6708</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>138443.87</v>
+        <v>0</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>151859.08</v>
+        <v>0</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>13.84</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1.0969</v>
+        <v>0.9114</v>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>1.099</v>
+        <v>0.9172</v>
       </c>
       <c r="J111" s="7" t="n">
-        <v>0.0019</v>
+        <v>0.0064</v>
       </c>
       <c r="K111" s="9" t="n">
-        <v>290.73</v>
+        <v>0</v>
       </c>
       <c r="L111" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M111" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N111" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O111" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P111" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q111" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>安信稳健增值混合C</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>1338</v>
+        <v>2086</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1.3555</v>
+        <v>1.2258</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>55957.04</v>
+        <v>0</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>75905.72</v>
+        <v>0</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>55.96</v>
+        <v>0</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.2692</v>
       </c>
       <c r="H112" s="6" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
-        <v>1.3566</v>
+        <v>1.2698</v>
       </c>
       <c r="J112" s="7" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="L112" s="6" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M112" s="6" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N112" s="6" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O112" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="P112" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>511</t>
         </is>
       </c>
       <c r="Q112" s="6" t="inlineStr">
         <is>
-          <t>钉钉宝365父</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
+          <t>华宝红利基金</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>501029</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="D113" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>1.0246</v>
+      </c>
+      <c r="H113" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I113" s="4" t="n">
+        <v>1.0128</v>
+      </c>
+      <c r="J113" s="7" t="n">
+        <v>-0.0115</v>
+      </c>
+      <c r="K113" s="9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L113" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M113" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N113" s="6" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="O113" s="6" t="inlineStr">
+        <is>
+          <t>标普红利</t>
+        </is>
+      </c>
+      <c r="P113" s="6" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="Q113" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>长安鑫益增强混合C</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="D114" s="5" t="n">
+        <v>274071.1</v>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>333654.16</v>
+      </c>
+      <c r="F114" s="5" t="n">
+        <v>575.55</v>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>1.2174</v>
+      </c>
+      <c r="H114" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="n">
+        <v>1.2169</v>
+      </c>
+      <c r="J114" s="7" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>-137.04</v>
+      </c>
+      <c r="L114" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M114" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N114" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O114" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P114" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q114" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>鹏扬泓利债券C</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>1.0969</v>
+      </c>
+      <c r="D115" s="5" t="n">
+        <v>151857.97</v>
+      </c>
+      <c r="E115" s="5" t="n">
+        <v>167408.23</v>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>835.22</v>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>1.1024</v>
+      </c>
+      <c r="H115" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I115" s="4" t="n">
+        <v>1.1031</v>
+      </c>
+      <c r="J115" s="7" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="L115" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M115" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N115" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O115" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P115" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q115" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>民生加银鹏程混合C</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>7749</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>1.0898</v>
+      </c>
+      <c r="D116" s="5" t="n">
+        <v>152799.73</v>
+      </c>
+      <c r="E116" s="5" t="n">
+        <v>167178.18</v>
+      </c>
+      <c r="F116" s="5" t="n">
+        <v>657.04</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>1.0941</v>
+      </c>
+      <c r="H116" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="n">
+        <v>1.0919</v>
+      </c>
+      <c r="J116" s="7" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>-336.16</v>
+      </c>
+      <c r="L116" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M116" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N116" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O116" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P116" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q116" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
           <t>工银双利债券B</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B117" s="3" t="n">
         <v>485011</v>
       </c>
-      <c r="C113" s="4" t="n">
-        <v>1.5745</v>
-      </c>
-      <c r="D113" s="5" t="n">
-        <v>48212.34</v>
-      </c>
-      <c r="E113" s="5" t="n">
-        <v>76030.86</v>
-      </c>
-      <c r="F113" s="5" t="n">
-        <v>120.53</v>
-      </c>
-      <c r="G113" s="4" t="n">
-        <v>1.577</v>
-      </c>
-      <c r="H113" s="6" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I113" s="4" t="n">
-        <v>1.5793</v>
-      </c>
-      <c r="J113" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K113" s="9" t="n">
-        <v>110.89</v>
-      </c>
-      <c r="L113" s="6" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M113" s="6" t="inlineStr">
+      <c r="C117" s="4" t="n">
+        <v>1.5762</v>
+      </c>
+      <c r="D117" s="5" t="n">
+        <v>52806.9</v>
+      </c>
+      <c r="E117" s="5" t="n">
+        <v>83751.74000000001</v>
+      </c>
+      <c r="F117" s="5" t="n">
+        <v>517.51</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="H117" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="n">
+        <v>1.5858</v>
+      </c>
+      <c r="J117" s="7" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>-10.56</v>
+      </c>
+      <c r="L117" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M117" s="6" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="N113" s="6" t="inlineStr">
+      <c r="N117" s="6" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="O113" s="6" t="inlineStr">
+      <c r="O117" s="6" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="P113" s="6" t="inlineStr">
+      <c r="P117" s="6" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q113" s="6" t="inlineStr">
+      <c r="Q117" s="6" t="inlineStr">
         <is>
           <t>钉钉宝365父</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="34" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B114" s="35" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C114" s="36" t="n">
-        <v>1.0451</v>
-      </c>
-      <c r="D114" s="37" t="n">
-        <v>9368.450000000001</v>
-      </c>
-      <c r="E114" s="37" t="n">
-        <v>11523.19</v>
-      </c>
-      <c r="F114" s="37" t="n">
-        <v>1732.23</v>
-      </c>
-      <c r="G114" s="36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H114" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I114" s="36" t="n">
-        <v>1.2411</v>
-      </c>
-      <c r="J114" s="39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>103.99</v>
-      </c>
-      <c r="L114" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M114" s="38" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N114" s="38" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O114" s="38" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P114" s="38" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q114" s="38" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="34" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B115" s="35" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C115" s="36" t="n">
-        <v>0.9137</v>
-      </c>
-      <c r="D115" s="37" t="n">
-        <v>10068.96</v>
-      </c>
-      <c r="E115" s="37" t="n">
-        <v>10280.41</v>
-      </c>
-      <c r="F115" s="37" t="n">
-        <v>1080.4</v>
-      </c>
-      <c r="G115" s="36" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="H115" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I115" s="36" t="n">
-        <v>1.0208</v>
-      </c>
-      <c r="J115" s="39" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="L115" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M115" s="38" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N115" s="38" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O115" s="38" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P115" s="38" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q115" s="38" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="34" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B116" s="35" t="n">
-        <v>968</v>
-      </c>
-      <c r="C116" s="36" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D116" s="37" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E116" s="37" t="n">
-        <v>6369.93</v>
-      </c>
-      <c r="F116" s="37" t="n">
-        <v>1169.86</v>
-      </c>
-      <c r="G116" s="36" t="n">
-        <v>1.0449</v>
-      </c>
-      <c r="H116" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I116" s="36" t="n">
-        <v>1.0521</v>
-      </c>
-      <c r="J116" s="39" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="L116" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M116" s="38" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N116" s="38" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O116" s="38" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="P116" s="38" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="Q116" s="38" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="34" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B117" s="35" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C117" s="36" t="n">
-        <v>0.7111</v>
-      </c>
-      <c r="D117" s="37" t="n">
-        <v>6750.28</v>
-      </c>
-      <c r="E117" s="37" t="n">
-        <v>6335.14</v>
-      </c>
-      <c r="F117" s="37" t="n">
-        <v>1535.01</v>
-      </c>
-      <c r="G117" s="36" t="n">
-        <v>0.9385</v>
-      </c>
-      <c r="H117" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I117" s="36" t="n">
-        <v>0.9588</v>
-      </c>
-      <c r="J117" s="39" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>137.03</v>
-      </c>
-      <c r="L117" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M117" s="38" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N117" s="38" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O117" s="38" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="P117" s="38" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="Q117" s="38" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
     <row r="118">
-      <c r="A118" s="34" t="inlineStr">
-        <is>
-          <t>富国沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="B118" s="35" t="n">
-        <v>100038</v>
-      </c>
-      <c r="C118" s="36" t="n">
-        <v>1.3043</v>
-      </c>
-      <c r="D118" s="37" t="n">
-        <v>2760.12</v>
-      </c>
-      <c r="E118" s="37" t="n">
-        <v>4645.28</v>
-      </c>
-      <c r="F118" s="37" t="n">
-        <v>1045.26</v>
-      </c>
-      <c r="G118" s="36" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="H118" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I118" s="36" t="n">
-        <v>1.6915</v>
-      </c>
-      <c r="J118" s="39" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="L118" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 15:00</t>
-        </is>
-      </c>
-      <c r="M118" s="38" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N118" s="38" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O118" s="38" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="P118" s="38" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="Q118" s="38" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>安信稳健增值混合C</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>1.3555</v>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v>61401.75</v>
+      </c>
+      <c r="E118" s="5" t="n">
+        <v>83518.66</v>
+      </c>
+      <c r="F118" s="5" t="n">
+        <v>288.59</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>1.3602</v>
+      </c>
+      <c r="H118" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I118" s="4" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J118" s="7" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>-196.49</v>
+      </c>
+      <c r="L118" s="6" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M118" s="6" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N118" s="6" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O118" s="6" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P118" s="6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q118" s="6" t="inlineStr">
+        <is>
+          <t>钉钉宝365父</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="34" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B119" s="35" t="n">
-        <v>4752</v>
+        <v>162711</v>
       </c>
       <c r="C119" s="36" t="n">
-        <v>0.7235</v>
+        <v>1.0451</v>
       </c>
       <c r="D119" s="37" t="n">
-        <v>4423.48</v>
+        <v>9368.450000000001</v>
       </c>
       <c r="E119" s="37" t="n">
-        <v>3996.61</v>
+        <v>11798.63</v>
       </c>
       <c r="F119" s="37" t="n">
-        <v>796.23</v>
+        <v>2007.66</v>
       </c>
       <c r="G119" s="36" t="n">
-        <v>0.9035</v>
+        <v>1.2594</v>
       </c>
       <c r="H119" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I119" s="36" t="n">
-        <v>0.9084</v>
+        <v>1.2517</v>
       </c>
       <c r="J119" s="39" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K119" s="9" t="n">
-        <v>21.68</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>-72.14</v>
       </c>
       <c r="L119" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M119" s="38" t="inlineStr">
@@ -8688,17 +8688,17 @@
       </c>
       <c r="N119" s="38" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O119" s="38" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P119" s="38" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q119" s="38" t="inlineStr">
@@ -8710,44 +8710,44 @@
     <row r="120">
       <c r="A120" s="34" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B120" s="35" t="n">
-        <v>161017</v>
+        <v>100032</v>
       </c>
       <c r="C120" s="36" t="n">
-        <v>1.325</v>
+        <v>0.9137</v>
       </c>
       <c r="D120" s="37" t="n">
-        <v>2046.97</v>
+        <v>10068.96</v>
       </c>
       <c r="E120" s="37" t="n">
-        <v>3815.55</v>
+        <v>10562.34</v>
       </c>
       <c r="F120" s="37" t="n">
-        <v>1103.32</v>
+        <v>1362.33</v>
       </c>
       <c r="G120" s="36" t="n">
-        <v>1.864</v>
+        <v>1.049</v>
       </c>
       <c r="H120" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I120" s="36" t="n">
-        <v>1.8808</v>
+        <v>1.0371</v>
       </c>
       <c r="J120" s="39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>34.39</v>
+        <v>-0.0113</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>-119.82</v>
       </c>
       <c r="L120" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M120" s="38" t="inlineStr">
@@ -8757,17 +8757,17 @@
       </c>
       <c r="N120" s="38" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O120" s="38" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P120" s="38" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q120" s="38" t="inlineStr">
@@ -8779,44 +8779,44 @@
     <row r="121">
       <c r="A121" s="34" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B121" s="35" t="n">
-        <v>1064</v>
+        <v>968</v>
       </c>
       <c r="C121" s="36" t="n">
-        <v>0.5379</v>
+        <v>0.853</v>
       </c>
       <c r="D121" s="37" t="n">
-        <v>5949.77</v>
+        <v>6096.21</v>
       </c>
       <c r="E121" s="37" t="n">
-        <v>3798.33</v>
+        <v>6588.17</v>
       </c>
       <c r="F121" s="37" t="n">
-        <v>597.95</v>
+        <v>1388.11</v>
       </c>
       <c r="G121" s="36" t="n">
-        <v>0.6384</v>
+        <v>1.0807</v>
       </c>
       <c r="H121" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I121" s="36" t="n">
-        <v>0.647</v>
+        <v>1.0741</v>
       </c>
       <c r="J121" s="39" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>51.17</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>-40.23</v>
       </c>
       <c r="L121" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M121" s="38" t="inlineStr">
@@ -8831,12 +8831,12 @@
       </c>
       <c r="O121" s="38" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P121" s="38" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q121" s="38" t="inlineStr">
@@ -8848,64 +8848,64 @@
     <row r="122">
       <c r="A122" s="34" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B122" s="35" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C122" s="36" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D122" s="37" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E122" s="37" t="n">
-        <v>3614.88</v>
+        <v>6567.35</v>
       </c>
       <c r="F122" s="37" t="n">
-        <v>423.72</v>
+        <v>1767.22</v>
       </c>
       <c r="G122" s="36" t="n">
-        <v>1.824</v>
+        <v>0.9729</v>
       </c>
       <c r="H122" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I122" s="36" t="n">
-        <v>1.8283</v>
+        <v>0.9785</v>
       </c>
       <c r="J122" s="39" t="n">
-        <v>0.0024</v>
+        <v>0.0058</v>
       </c>
       <c r="K122" s="9" t="n">
-        <v>8.52</v>
+        <v>37.8</v>
       </c>
       <c r="L122" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M122" s="38" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N122" s="38" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O122" s="38" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P122" s="38" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q122" s="38" t="inlineStr">
@@ -8917,64 +8917,64 @@
     <row r="123">
       <c r="A123" s="34" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B123" s="35" t="n">
-        <v>340001</v>
+        <v>100038</v>
       </c>
       <c r="C123" s="36" t="n">
-        <v>0.9816</v>
+        <v>1.3043</v>
       </c>
       <c r="D123" s="37" t="n">
-        <v>1630.08</v>
+        <v>2760.12</v>
       </c>
       <c r="E123" s="37" t="n">
-        <v>2075.91</v>
+        <v>4791.57</v>
       </c>
       <c r="F123" s="37" t="n">
-        <v>475.82</v>
+        <v>1191.54</v>
       </c>
       <c r="G123" s="36" t="n">
-        <v>1.2735</v>
+        <v>1.736</v>
       </c>
       <c r="H123" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I123" s="36" t="n">
-        <v>1.273</v>
+        <v>1.7093</v>
       </c>
       <c r="J123" s="39" t="n">
-        <v>-0.0004</v>
+        <v>-0.0154</v>
       </c>
       <c r="K123" s="8" t="n">
-        <v>-0.82</v>
+        <v>-73.7</v>
       </c>
       <c r="L123" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M123" s="38" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N123" s="38" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O123" s="38" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P123" s="38" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q123" s="38" t="inlineStr">
@@ -8986,64 +8986,64 @@
     <row r="124">
       <c r="A124" s="34" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B124" s="35" t="n">
-        <v>614</v>
+        <v>4752</v>
       </c>
       <c r="C124" s="36" t="n">
-        <v>1.0612</v>
+        <v>0.7235</v>
       </c>
       <c r="D124" s="37" t="n">
-        <v>1884.74</v>
+        <v>4423.48</v>
       </c>
       <c r="E124" s="37" t="n">
-        <v>2035.52</v>
+        <v>4059.43</v>
       </c>
       <c r="F124" s="37" t="n">
-        <v>35.43</v>
+        <v>859.04</v>
       </c>
       <c r="G124" s="36" t="n">
-        <v>1.08</v>
+        <v>0.9177</v>
       </c>
       <c r="H124" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I124" s="36" t="n">
-        <v>0</v>
+        <v>0.9066</v>
       </c>
       <c r="J124" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" s="9" t="n">
-        <v>0</v>
+        <v>-0.0121</v>
+      </c>
+      <c r="K124" s="8" t="n">
+        <v>-49.1</v>
       </c>
       <c r="L124" s="38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M124" s="38" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N124" s="38" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O124" s="38" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P124" s="38" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q124" s="38" t="inlineStr">
@@ -9055,44 +9055,44 @@
     <row r="125">
       <c r="A125" s="34" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B125" s="35" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C125" s="36" t="n">
-        <v>1.0273</v>
+        <v>1.325</v>
       </c>
       <c r="D125" s="37" t="n">
-        <v>913.64</v>
+        <v>2046.97</v>
       </c>
       <c r="E125" s="37" t="n">
-        <v>1981.14</v>
+        <v>3924.04</v>
       </c>
       <c r="F125" s="37" t="n">
-        <v>1042.55</v>
+        <v>1211.81</v>
       </c>
       <c r="G125" s="36" t="n">
-        <v>2.1684</v>
+        <v>1.917</v>
       </c>
       <c r="H125" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I125" s="36" t="n">
-        <v>2.2051</v>
+        <v>1.9053</v>
       </c>
       <c r="J125" s="39" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="K125" s="9" t="n">
-        <v>33.53</v>
+        <v>-0.0061</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>-23.95</v>
       </c>
       <c r="L125" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M125" s="38" t="inlineStr">
@@ -9107,12 +9107,12 @@
       </c>
       <c r="O125" s="38" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P125" s="38" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q125" s="38" t="inlineStr">
@@ -9124,64 +9124,64 @@
     <row r="126">
       <c r="A126" s="34" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B126" s="35" t="n">
-        <v>164906</v>
+        <v>1064</v>
       </c>
       <c r="C126" s="36" t="n">
-        <v>1.137</v>
+        <v>0.5379</v>
       </c>
       <c r="D126" s="37" t="n">
-        <v>1407.29</v>
+        <v>5949.77</v>
       </c>
       <c r="E126" s="37" t="n">
-        <v>1920.95</v>
+        <v>3923.87</v>
       </c>
       <c r="F126" s="37" t="n">
-        <v>320.86</v>
+        <v>723.49</v>
       </c>
       <c r="G126" s="36" t="n">
-        <v>1.365</v>
+        <v>0.6595</v>
       </c>
       <c r="H126" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I126" s="36" t="n">
-        <v>1.4133</v>
+        <v>0.657</v>
       </c>
       <c r="J126" s="39" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="K126" s="9" t="n">
-        <v>67.97</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K126" s="8" t="n">
+        <v>-14.87</v>
       </c>
       <c r="L126" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 05:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M126" s="38" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N126" s="38" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O126" s="38" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P126" s="38" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q126" s="38" t="inlineStr">
@@ -9193,64 +9193,64 @@
     <row r="127">
       <c r="A127" s="34" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B127" s="35" t="n">
-        <v>162413</v>
+        <v>110027</v>
       </c>
       <c r="C127" s="36" t="n">
-        <v>0.776</v>
+        <v>1.6102</v>
       </c>
       <c r="D127" s="37" t="n">
-        <v>1546.42</v>
+        <v>1981.84</v>
       </c>
       <c r="E127" s="37" t="n">
-        <v>1393.32</v>
+        <v>3654.51</v>
       </c>
       <c r="F127" s="37" t="n">
-        <v>193.3</v>
+        <v>463.35</v>
       </c>
       <c r="G127" s="36" t="n">
-        <v>0.901</v>
+        <v>1.844</v>
       </c>
       <c r="H127" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I127" s="36" t="n">
-        <v>0.9126</v>
+        <v>1.8391</v>
       </c>
       <c r="J127" s="39" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K127" s="9" t="n">
-        <v>17.94</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K127" s="8" t="n">
+        <v>-9.710000000000001</v>
       </c>
       <c r="L127" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M127" s="38" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N127" s="38" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O127" s="38" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P127" s="38" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q127" s="38" t="inlineStr">
@@ -9262,64 +9262,64 @@
     <row r="128">
       <c r="A128" s="34" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B128" s="35" t="n">
-        <v>1469</v>
+        <v>340001</v>
       </c>
       <c r="C128" s="36" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="D128" s="37" t="n">
-        <v>1267.08</v>
+        <v>1630.08</v>
       </c>
       <c r="E128" s="37" t="n">
-        <v>1376.94</v>
+        <v>2110.95</v>
       </c>
       <c r="F128" s="37" t="n">
-        <v>176.88</v>
+        <v>510.87</v>
       </c>
       <c r="G128" s="36" t="n">
-        <v>1.0867</v>
+        <v>1.295</v>
       </c>
       <c r="H128" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I128" s="36" t="n">
-        <v>1.0896</v>
+        <v>1.2873</v>
       </c>
       <c r="J128" s="39" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="K128" s="9" t="n">
-        <v>3.67</v>
+        <v>-0.0059</v>
+      </c>
+      <c r="K128" s="8" t="n">
+        <v>-12.55</v>
       </c>
       <c r="L128" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M128" s="38" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N128" s="38" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O128" s="38" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P128" s="38" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q128" s="38" t="inlineStr">
@@ -9331,64 +9331,64 @@
     <row r="129">
       <c r="A129" s="34" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B129" s="35" t="n">
-        <v>1051</v>
+        <v>614</v>
       </c>
       <c r="C129" s="36" t="n">
-        <v>0.8966</v>
+        <v>1.0612</v>
       </c>
       <c r="D129" s="37" t="n">
-        <v>1338.46</v>
+        <v>1884.74</v>
       </c>
       <c r="E129" s="37" t="n">
-        <v>1333.11</v>
+        <v>2088.29</v>
       </c>
       <c r="F129" s="37" t="n">
-        <v>133.04</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="G129" s="36" t="n">
-        <v>0.996</v>
+        <v>1.108</v>
       </c>
       <c r="H129" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I129" s="36" t="n">
-        <v>1.0004</v>
+        <v>0</v>
       </c>
       <c r="J129" s="39" t="n">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="L129" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M129" s="38" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N129" s="38" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O129" s="38" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P129" s="38" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q129" s="38" t="inlineStr">
@@ -9400,64 +9400,64 @@
     <row r="130">
       <c r="A130" s="34" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B130" s="35" t="n">
-        <v>162411</v>
+        <v>110026</v>
       </c>
       <c r="C130" s="36" t="n">
-        <v>0.4405</v>
+        <v>1.0273</v>
       </c>
       <c r="D130" s="37" t="n">
-        <v>4541.16</v>
+        <v>913.64</v>
       </c>
       <c r="E130" s="37" t="n">
-        <v>1457.71</v>
+        <v>2044</v>
       </c>
       <c r="F130" s="37" t="n">
-        <v>-542.67</v>
+        <v>1105.41</v>
       </c>
       <c r="G130" s="36" t="n">
-        <v>0.321</v>
+        <v>2.2372</v>
       </c>
       <c r="H130" s="38" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I130" s="36" t="n">
-        <v>0.323</v>
+        <v>2.2213</v>
       </c>
       <c r="J130" s="39" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="K130" s="9" t="n">
-        <v>9.08</v>
+        <v>-0.0071</v>
+      </c>
+      <c r="K130" s="8" t="n">
+        <v>-14.53</v>
       </c>
       <c r="L130" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:04</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M130" s="38" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N130" s="38" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O130" s="38" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P130" s="38" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q130" s="38" t="inlineStr">
@@ -9469,64 +9469,64 @@
     <row r="131">
       <c r="A131" s="34" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B131" s="35" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C131" s="36" t="n">
-        <v>1.0903</v>
+        <v>1.137</v>
       </c>
       <c r="D131" s="37" t="n">
-        <v>733.79</v>
+        <v>1407.29</v>
       </c>
       <c r="E131" s="37" t="n">
-        <v>962.66</v>
+        <v>1970.21</v>
       </c>
       <c r="F131" s="37" t="n">
-        <v>162.61</v>
+        <v>370.12</v>
       </c>
       <c r="G131" s="36" t="n">
-        <v>1.3119</v>
+        <v>1.4</v>
       </c>
       <c r="H131" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I131" s="36" t="n">
-        <v>1.3104</v>
+        <v>1.3655</v>
       </c>
       <c r="J131" s="39" t="n">
-        <v>-0.0011</v>
+        <v>-0.0247</v>
       </c>
       <c r="K131" s="8" t="n">
-        <v>-1.1</v>
+        <v>-48.55</v>
       </c>
       <c r="L131" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:30</t>
+          <t>2020-03-06 05:00</t>
         </is>
       </c>
       <c r="M131" s="38" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N131" s="38" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O131" s="38" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P131" s="38" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q131" s="38" t="inlineStr">
@@ -9538,44 +9538,44 @@
     <row r="132">
       <c r="A132" s="34" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B132" s="35" t="n">
-        <v>478</v>
+        <v>162413</v>
       </c>
       <c r="C132" s="36" t="n">
-        <v>1.9358</v>
+        <v>0.776</v>
       </c>
       <c r="D132" s="37" t="n">
-        <v>413.27</v>
+        <v>1546.42</v>
       </c>
       <c r="E132" s="37" t="n">
-        <v>889.11</v>
+        <v>1438.02</v>
       </c>
       <c r="F132" s="37" t="n">
-        <v>89.09999999999999</v>
+        <v>237.99</v>
       </c>
       <c r="G132" s="36" t="n">
-        <v>2.1514</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="H132" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I132" s="36" t="n">
-        <v>2.1708</v>
+        <v>0.9272</v>
       </c>
       <c r="J132" s="39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K132" s="9" t="n">
-        <v>8.02</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K132" s="8" t="n">
+        <v>-4.18</v>
       </c>
       <c r="L132" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M132" s="38" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="O132" s="38" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="P132" s="38" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>123</t>
         </is>
       </c>
       <c r="Q132" s="38" t="inlineStr">
@@ -9607,44 +9607,44 @@
     <row r="133">
       <c r="A133" s="34" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B133" s="35" t="n">
-        <v>502010</v>
+        <v>1469</v>
       </c>
       <c r="C133" s="36" t="n">
-        <v>0.8063</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D133" s="37" t="n">
-        <v>496.13</v>
+        <v>1267.08</v>
       </c>
       <c r="E133" s="37" t="n">
-        <v>554.87</v>
+        <v>1432.43</v>
       </c>
       <c r="F133" s="37" t="n">
-        <v>154.84</v>
+        <v>232.38</v>
       </c>
       <c r="G133" s="36" t="n">
-        <v>1.1184</v>
+        <v>1.1305</v>
       </c>
       <c r="H133" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I133" s="36" t="n">
-        <v>1.1288</v>
+        <v>1.1055</v>
       </c>
       <c r="J133" s="39" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="K133" s="9" t="n">
-        <v>5.16</v>
+        <v>-0.0221</v>
+      </c>
+      <c r="K133" s="8" t="n">
+        <v>-31.68</v>
       </c>
       <c r="L133" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M133" s="38" t="inlineStr">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="O133" s="38" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P133" s="38" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q133" s="38" t="inlineStr">
@@ -9676,64 +9676,64 @@
     <row r="134">
       <c r="A134" s="34" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B134" s="35" t="n">
-        <v>519977</v>
+        <v>1051</v>
       </c>
       <c r="C134" s="36" t="n">
-        <v>1.2011</v>
+        <v>0.8966</v>
       </c>
       <c r="D134" s="37" t="n">
-        <v>333.04</v>
+        <v>1338.46</v>
       </c>
       <c r="E134" s="37" t="n">
-        <v>506.45</v>
+        <v>1379.95</v>
       </c>
       <c r="F134" s="37" t="n">
-        <v>106.44</v>
+        <v>179.89</v>
       </c>
       <c r="G134" s="36" t="n">
-        <v>1.5207</v>
+        <v>1.031</v>
       </c>
       <c r="H134" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="I134" s="36" t="n">
-        <v>1.5286</v>
+        <v>1.0138</v>
       </c>
       <c r="J134" s="39" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="K134" s="9" t="n">
-        <v>2.63</v>
+        <v>-0.0167</v>
+      </c>
+      <c r="K134" s="8" t="n">
+        <v>-23.02</v>
       </c>
       <c r="L134" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:00</t>
         </is>
       </c>
       <c r="M134" s="38" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N134" s="38" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O134" s="38" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P134" s="38" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q134" s="38" t="inlineStr">
@@ -9745,64 +9745,64 @@
     <row r="135">
       <c r="A135" s="34" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B135" s="35" t="n">
-        <v>51</v>
+        <v>162411</v>
       </c>
       <c r="C135" s="36" t="n">
-        <v>1.2285</v>
+        <v>0.4405</v>
       </c>
       <c r="D135" s="37" t="n">
-        <v>325.61</v>
+        <v>4541.16</v>
       </c>
       <c r="E135" s="37" t="n">
-        <v>443.16</v>
+        <v>1480.42</v>
       </c>
       <c r="F135" s="37" t="n">
-        <v>43.14</v>
+        <v>-519.96</v>
       </c>
       <c r="G135" s="36" t="n">
-        <v>1.361</v>
+        <v>0.326</v>
       </c>
       <c r="H135" s="38" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="I135" s="36" t="n">
-        <v>1.3679</v>
+        <v>0.319</v>
       </c>
       <c r="J135" s="39" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K135" s="9" t="n">
-        <v>2.25</v>
+        <v>-0.0215</v>
+      </c>
+      <c r="K135" s="8" t="n">
+        <v>-31.79</v>
       </c>
       <c r="L135" s="38" t="inlineStr">
         <is>
-          <t>2020-03-03 15:00</t>
+          <t>2020-03-06 15:04</t>
         </is>
       </c>
       <c r="M135" s="38" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N135" s="38" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O135" s="38" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P135" s="38" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q135" s="38" t="inlineStr">
@@ -9814,73 +9814,418 @@
     <row r="136">
       <c r="A136" s="34" t="inlineStr">
         <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B136" s="35" t="n">
+        <v>216</v>
+      </c>
+      <c r="C136" s="36" t="n">
+        <v>1.0903</v>
+      </c>
+      <c r="D136" s="37" t="n">
+        <v>733.79</v>
+      </c>
+      <c r="E136" s="37" t="n">
+        <v>982.1799999999999</v>
+      </c>
+      <c r="F136" s="37" t="n">
+        <v>182.13</v>
+      </c>
+      <c r="G136" s="36" t="n">
+        <v>1.3385</v>
+      </c>
+      <c r="H136" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I136" s="36" t="n">
+        <v>1.3601</v>
+      </c>
+      <c r="J136" s="39" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="K136" s="9" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="L136" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:30</t>
+        </is>
+      </c>
+      <c r="M136" s="38" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="N136" s="38" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="O136" s="38" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="P136" s="38" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="Q136" s="38" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="34" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B137" s="35" t="n">
+        <v>478</v>
+      </c>
+      <c r="C137" s="36" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="D137" s="37" t="n">
+        <v>413.27</v>
+      </c>
+      <c r="E137" s="37" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="F137" s="37" t="n">
+        <v>112.49</v>
+      </c>
+      <c r="G137" s="36" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="H137" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I137" s="36" t="n">
+        <v>2.1946</v>
+      </c>
+      <c r="J137" s="39" t="n">
+        <v>-0.0061</v>
+      </c>
+      <c r="K137" s="8" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="L137" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M137" s="38" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N137" s="38" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O137" s="38" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P137" s="38" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q137" s="38" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="34" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="B138" s="35" t="n">
+        <v>502010</v>
+      </c>
+      <c r="C138" s="36" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="D138" s="37" t="n">
+        <v>496.13</v>
+      </c>
+      <c r="E138" s="37" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="F138" s="37" t="n">
+        <v>190.22</v>
+      </c>
+      <c r="G138" s="36" t="n">
+        <v>1.1897</v>
+      </c>
+      <c r="H138" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I138" s="36" t="n">
+        <v>1.1504</v>
+      </c>
+      <c r="J138" s="39" t="n">
+        <v>-0.0331</v>
+      </c>
+      <c r="K138" s="8" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="L138" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M138" s="38" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N138" s="38" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O138" s="38" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="P138" s="38" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="Q138" s="38" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="34" t="inlineStr">
+        <is>
+          <t>长信可转债债券A</t>
+        </is>
+      </c>
+      <c r="B139" s="35" t="n">
+        <v>519977</v>
+      </c>
+      <c r="C139" s="36" t="n">
+        <v>1.2011</v>
+      </c>
+      <c r="D139" s="37" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="E139" s="37" t="n">
+        <v>513.85</v>
+      </c>
+      <c r="F139" s="37" t="n">
+        <v>113.83</v>
+      </c>
+      <c r="G139" s="36" t="n">
+        <v>1.5429</v>
+      </c>
+      <c r="H139" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I139" s="36" t="n">
+        <v>1.5402</v>
+      </c>
+      <c r="J139" s="39" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="K139" s="8" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="L139" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M139" s="38" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N139" s="38" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O139" s="38" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P139" s="38" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q139" s="38" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="34" t="inlineStr">
+        <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B140" s="35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C140" s="36" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D140" s="37" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E140" s="37" t="n">
+        <v>457.16</v>
+      </c>
+      <c r="F140" s="37" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="G140" s="36" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="H140" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I140" s="36" t="n">
+        <v>1.3824</v>
+      </c>
+      <c r="J140" s="39" t="n">
+        <v>-0.0154</v>
+      </c>
+      <c r="K140" s="8" t="n">
+        <v>-7.03</v>
+      </c>
+      <c r="L140" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 15:00</t>
+        </is>
+      </c>
+      <c r="M140" s="38" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N140" s="38" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O140" s="38" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="P140" s="38" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="Q140" s="38" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="34" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B136" s="35" t="n">
+      <c r="B141" s="35" t="n">
         <v>71</v>
       </c>
-      <c r="C136" s="36" t="n">
+      <c r="C141" s="36" t="n">
         <v>1.452</v>
       </c>
-      <c r="D136" s="37" t="n">
+      <c r="D141" s="37" t="n">
         <v>275.49</v>
       </c>
-      <c r="E136" s="37" t="n">
-        <v>405.52</v>
-      </c>
-      <c r="F136" s="37" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="G136" s="36" t="n">
-        <v>1.472</v>
-      </c>
-      <c r="H136" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-02</t>
-        </is>
-      </c>
-      <c r="I136" s="36" t="n">
-        <v>1.4716</v>
-      </c>
-      <c r="J136" s="39" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K136" s="8" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="L136" s="38" t="inlineStr">
-        <is>
-          <t>2020-03-03 16:00</t>
-        </is>
-      </c>
-      <c r="M136" s="38" t="inlineStr">
+      <c r="E141" s="37" t="n">
+        <v>411.09</v>
+      </c>
+      <c r="F141" s="37" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="G141" s="36" t="n">
+        <v>1.4922</v>
+      </c>
+      <c r="H141" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="I141" s="36" t="n">
+        <v>1.4593</v>
+      </c>
+      <c r="J141" s="39" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="K141" s="8" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="L141" s="38" t="inlineStr">
+        <is>
+          <t>2020-03-06 16:00</t>
+        </is>
+      </c>
+      <c r="M141" s="38" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N136" s="38" t="inlineStr">
+      <c r="N141" s="38" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O136" s="38" t="inlineStr">
+      <c r="O141" s="38" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P136" s="38" t="inlineStr">
+      <c r="P141" s="38" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q136" s="38" t="inlineStr">
+      <c r="Q141" s="38" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>